--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Hbegf-Cd82.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H2">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I2">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J2">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.662128</v>
+        <v>6.6809135</v>
       </c>
       <c r="N2">
-        <v>11.324256</v>
+        <v>13.361827</v>
       </c>
       <c r="O2">
-        <v>0.06190607559117826</v>
+        <v>0.06062572410365156</v>
       </c>
       <c r="P2">
-        <v>0.05368474409304218</v>
+        <v>0.04575492346489379</v>
       </c>
       <c r="Q2">
-        <v>40.528419433296</v>
+        <v>228.3734156362437</v>
       </c>
       <c r="R2">
-        <v>162.113677733184</v>
+        <v>913.493662544975</v>
       </c>
       <c r="S2">
-        <v>0.01306991369687903</v>
+        <v>0.03751752400121031</v>
       </c>
       <c r="T2">
-        <v>0.008893127731858425</v>
+        <v>0.02603347275500074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H3">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I3">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J3">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.084383</v>
       </c>
       <c r="O3">
-        <v>0.03675205837148112</v>
+        <v>0.03050346440964767</v>
       </c>
       <c r="P3">
-        <v>0.04780689527782001</v>
+        <v>0.03453196724936464</v>
       </c>
       <c r="Q3">
-        <v>24.060689076027</v>
+        <v>114.9046953082125</v>
       </c>
       <c r="R3">
-        <v>144.364134456162</v>
+        <v>689.4281718492751</v>
       </c>
       <c r="S3">
-        <v>0.007759274457487482</v>
+        <v>0.01887671405214757</v>
       </c>
       <c r="T3">
-        <v>0.007919434717475625</v>
+        <v>0.01964787525549408</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H4">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I4">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J4">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.024785666666666</v>
+        <v>5.022293</v>
       </c>
       <c r="N4">
-        <v>21.074357</v>
+        <v>15.066879</v>
       </c>
       <c r="O4">
-        <v>0.07680450044444284</v>
+        <v>0.04557462834771031</v>
       </c>
       <c r="P4">
-        <v>0.09990691330807182</v>
+        <v>0.0515935354873114</v>
       </c>
       <c r="Q4">
-        <v>50.28206001836633</v>
+        <v>171.6768532830125</v>
       </c>
       <c r="R4">
-        <v>301.692360110198</v>
+        <v>1030.061119698075</v>
       </c>
       <c r="S4">
-        <v>0.01621534207676092</v>
+        <v>0.02820332850718851</v>
       </c>
       <c r="T4">
-        <v>0.01655004520100788</v>
+        <v>0.02935550534738946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H5">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I5">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J5">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.787556</v>
+        <v>31.886678</v>
       </c>
       <c r="N5">
-        <v>115.575112</v>
+        <v>63.77335599999999</v>
       </c>
       <c r="O5">
-        <v>0.6318120695903461</v>
+        <v>0.2893545834727505</v>
       </c>
       <c r="P5">
-        <v>0.5479053379970118</v>
+        <v>0.2183791949169395</v>
       </c>
       <c r="Q5">
-        <v>413.632172849692</v>
+        <v>1089.981118323575</v>
       </c>
       <c r="R5">
-        <v>1654.528691398768</v>
+        <v>4359.9244732943</v>
       </c>
       <c r="S5">
-        <v>0.1333912567277822</v>
+        <v>0.1790637174368243</v>
       </c>
       <c r="T5">
-        <v>0.09076306943607099</v>
+        <v>0.1242526135027016</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H6">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I6">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J6">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.836431666666667</v>
+        <v>58.32031366666666</v>
       </c>
       <c r="N6">
-        <v>14.509295</v>
+        <v>174.960941</v>
       </c>
       <c r="O6">
-        <v>0.05287844152379369</v>
+        <v>0.5292257183083949</v>
       </c>
       <c r="P6">
-        <v>0.06878401451234029</v>
+        <v>0.5991190025735851</v>
       </c>
       <c r="Q6">
-        <v>34.61824443868834</v>
+        <v>1993.561095055904</v>
       </c>
       <c r="R6">
-        <v>207.70946663213</v>
+        <v>11961.36657033543</v>
       </c>
       <c r="S6">
-        <v>0.01116395540407885</v>
+        <v>0.3275051784082043</v>
       </c>
       <c r="T6">
-        <v>0.01139439215558309</v>
+        <v>0.3408845879169662</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.157807</v>
+        <v>34.1829625</v>
       </c>
       <c r="H7">
-        <v>14.315614</v>
+        <v>68.365925</v>
       </c>
       <c r="I7">
-        <v>0.2111248948034031</v>
+        <v>0.6188383653293237</v>
       </c>
       <c r="J7">
-        <v>0.1656546544479295</v>
+        <v>0.5689764244710266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.79084133333333</v>
+        <v>4.927659666666667</v>
       </c>
       <c r="N7">
-        <v>38.372524</v>
+        <v>14.782979</v>
       </c>
       <c r="O7">
-        <v>0.1398468544787579</v>
+        <v>0.044715881357845</v>
       </c>
       <c r="P7">
-        <v>0.1819120948117138</v>
+        <v>0.05062137630790552</v>
       </c>
       <c r="Q7">
-        <v>91.55437363162267</v>
+        <v>168.4420055984292</v>
       </c>
       <c r="R7">
-        <v>549.3262417897359</v>
+        <v>1010.652033590575</v>
       </c>
       <c r="S7">
-        <v>0.02952515244041459</v>
+        <v>0.02767190292374878</v>
       </c>
       <c r="T7">
-        <v>0.03013458520593344</v>
+        <v>0.02880236969347442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>11.166373</v>
       </c>
       <c r="I8">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J8">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>5.662128</v>
+        <v>6.6809135</v>
       </c>
       <c r="N8">
-        <v>11.324256</v>
+        <v>13.361827</v>
       </c>
       <c r="O8">
-        <v>0.06190607559117826</v>
+        <v>0.06062572410365156</v>
       </c>
       <c r="P8">
-        <v>0.05368474409304218</v>
+        <v>0.04575492346489379</v>
       </c>
       <c r="Q8">
-        <v>21.075144407248</v>
+        <v>24.86719070724517</v>
       </c>
       <c r="R8">
-        <v>126.450866443488</v>
+        <v>149.203144243471</v>
       </c>
       <c r="S8">
-        <v>0.006796473250217569</v>
+        <v>0.00408521903305842</v>
       </c>
       <c r="T8">
-        <v>0.006936760196983179</v>
+        <v>0.00425211049609401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>11.166373</v>
       </c>
       <c r="I9">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J9">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.084383</v>
       </c>
       <c r="O9">
-        <v>0.03675205837148112</v>
+        <v>0.03050346440964767</v>
       </c>
       <c r="P9">
-        <v>0.04780689527782001</v>
+        <v>0.03453196724936464</v>
       </c>
       <c r="Q9">
         <v>12.511775783651</v>
@@ -1013,10 +1013,10 @@
         <v>112.605982052859</v>
       </c>
       <c r="S9">
-        <v>0.004034892847379925</v>
+        <v>0.002055453113722186</v>
       </c>
       <c r="T9">
-        <v>0.006177266445189318</v>
+        <v>0.003209135307688987</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>11.166373</v>
       </c>
       <c r="I10">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J10">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.024785666666666</v>
+        <v>5.022293</v>
       </c>
       <c r="N10">
-        <v>21.074357</v>
+        <v>15.066879</v>
       </c>
       <c r="O10">
-        <v>0.07680450044444284</v>
+        <v>0.04557462834771031</v>
       </c>
       <c r="P10">
-        <v>0.09990691330807182</v>
+        <v>0.0515935354873114</v>
       </c>
       <c r="Q10">
-        <v>26.14712566635122</v>
+        <v>18.69359898442967</v>
       </c>
       <c r="R10">
-        <v>235.324130997161</v>
+        <v>168.242390859867</v>
       </c>
       <c r="S10">
-        <v>0.008432124436609663</v>
+        <v>0.003071012213104701</v>
       </c>
       <c r="T10">
-        <v>0.01290925962947269</v>
+        <v>0.004794706168496152</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>11.166373</v>
       </c>
       <c r="I11">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J11">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>57.787556</v>
+        <v>31.886678</v>
       </c>
       <c r="N11">
-        <v>115.575112</v>
+        <v>63.77335599999999</v>
       </c>
       <c r="O11">
-        <v>0.6318120695903461</v>
+        <v>0.2893545834727505</v>
       </c>
       <c r="P11">
-        <v>0.5479053379970118</v>
+        <v>0.2183791949169395</v>
       </c>
       <c r="Q11">
-        <v>215.0924683514627</v>
+        <v>118.6861800929646</v>
       </c>
       <c r="R11">
-        <v>1290.554810108776</v>
+        <v>712.117080557788</v>
       </c>
       <c r="S11">
-        <v>0.06936465910863368</v>
+        <v>0.01949794199050851</v>
       </c>
       <c r="T11">
-        <v>0.07079642465548934</v>
+        <v>0.02029448191618855</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>11.166373</v>
       </c>
       <c r="I12">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J12">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.836431666666667</v>
+        <v>58.32031366666666</v>
       </c>
       <c r="N12">
-        <v>14.509295</v>
+        <v>174.960941</v>
       </c>
       <c r="O12">
-        <v>0.05287844152379369</v>
+        <v>0.5292257183083949</v>
       </c>
       <c r="P12">
-        <v>0.06878401451234029</v>
+        <v>0.5991190025735851</v>
       </c>
       <c r="Q12">
-        <v>18.00179999300389</v>
+        <v>217.0754586263325</v>
       </c>
       <c r="R12">
-        <v>162.016199937035</v>
+        <v>1953.679127636993</v>
       </c>
       <c r="S12">
-        <v>0.00580535771162453</v>
+        <v>0.03566147883893479</v>
       </c>
       <c r="T12">
-        <v>0.008887780357692996</v>
+        <v>0.05567750979208045</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>11.166373</v>
       </c>
       <c r="I13">
-        <v>0.1097868534762375</v>
+        <v>0.06738425137939692</v>
       </c>
       <c r="J13">
-        <v>0.1292128762868075</v>
+        <v>0.09293230485581538</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.79084133333333</v>
+        <v>4.927659666666667</v>
       </c>
       <c r="N13">
-        <v>38.372524</v>
+        <v>14.782979</v>
       </c>
       <c r="O13">
-        <v>0.1398468544787579</v>
+        <v>0.044715881357845</v>
       </c>
       <c r="P13">
-        <v>0.1819120948117138</v>
+        <v>0.05062137630790552</v>
       </c>
       <c r="Q13">
-        <v>47.60910177060578</v>
+        <v>18.34136195168522</v>
       </c>
       <c r="R13">
-        <v>428.481915935452</v>
+        <v>165.072257565167</v>
       </c>
       <c r="S13">
-        <v>0.0153533461217721</v>
+        <v>0.003013146190068316</v>
       </c>
       <c r="T13">
-        <v>0.02350538500197998</v>
+        <v>0.004704361175267226</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H14">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I14">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J14">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.662128</v>
+        <v>6.6809135</v>
       </c>
       <c r="N14">
-        <v>11.324256</v>
+        <v>13.361827</v>
       </c>
       <c r="O14">
-        <v>0.06190607559117826</v>
+        <v>0.06062572410365156</v>
       </c>
       <c r="P14">
-        <v>0.05368474409304218</v>
+        <v>0.04575492346489379</v>
       </c>
       <c r="Q14">
-        <v>8.892238020304001</v>
+        <v>10.4255053885285</v>
       </c>
       <c r="R14">
-        <v>53.353428121824</v>
+        <v>62.553032331171</v>
       </c>
       <c r="S14">
-        <v>0.00286763671326395</v>
+        <v>0.001712717513766476</v>
       </c>
       <c r="T14">
-        <v>0.002926828000292688</v>
+        <v>0.001782686328002899</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H15">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I15">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J15">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.084383</v>
       </c>
       <c r="O15">
-        <v>0.03675205837148112</v>
+        <v>0.03050346440964767</v>
       </c>
       <c r="P15">
-        <v>0.04780689527782001</v>
+        <v>0.03453196724936464</v>
       </c>
       <c r="Q15">
-        <v>5.279094945923</v>
+        <v>5.245529637351001</v>
       </c>
       <c r="R15">
-        <v>47.51185451330699</v>
+        <v>47.20976673615901</v>
       </c>
       <c r="S15">
-        <v>0.001702442787200316</v>
+        <v>0.0008617434017882392</v>
       </c>
       <c r="T15">
-        <v>0.002606374717250791</v>
+        <v>0.001345421677772423</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H16">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I16">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J16">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.024785666666666</v>
+        <v>5.022293</v>
       </c>
       <c r="N16">
-        <v>21.074357</v>
+        <v>15.066879</v>
       </c>
       <c r="O16">
-        <v>0.07680450044444284</v>
+        <v>0.04557462834771031</v>
       </c>
       <c r="P16">
-        <v>0.09990691330807182</v>
+        <v>0.0515935354873114</v>
       </c>
       <c r="Q16">
-        <v>11.03225963623922</v>
+        <v>7.837243025863001</v>
       </c>
       <c r="R16">
-        <v>99.29033672615299</v>
+        <v>70.535187232767</v>
       </c>
       <c r="S16">
-        <v>0.003557767199989775</v>
+        <v>0.001287513927603878</v>
       </c>
       <c r="T16">
-        <v>0.005446805349134124</v>
+        <v>0.002010168160310263</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H17">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I17">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J17">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>57.787556</v>
+        <v>31.886678</v>
       </c>
       <c r="N17">
-        <v>115.575112</v>
+        <v>63.77335599999999</v>
       </c>
       <c r="O17">
-        <v>0.6318120695903461</v>
+        <v>0.2893545834727505</v>
       </c>
       <c r="P17">
-        <v>0.5479053379970118</v>
+        <v>0.2183791949169395</v>
       </c>
       <c r="Q17">
-        <v>90.75398905917467</v>
+        <v>49.758874038898</v>
       </c>
       <c r="R17">
-        <v>544.523934355048</v>
+        <v>298.553244233388</v>
       </c>
       <c r="S17">
-        <v>0.02926703832117473</v>
+        <v>0.008174461750841733</v>
       </c>
       <c r="T17">
-        <v>0.02987114331736791</v>
+        <v>0.008508409054544834</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H18">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I18">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J18">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.836431666666667</v>
+        <v>58.32031366666666</v>
       </c>
       <c r="N18">
-        <v>14.509295</v>
+        <v>174.960941</v>
       </c>
       <c r="O18">
-        <v>0.05287844152379369</v>
+        <v>0.5292257183083949</v>
       </c>
       <c r="P18">
-        <v>0.06878401451234029</v>
+        <v>0.5991190025735851</v>
       </c>
       <c r="Q18">
-        <v>7.59550147028389</v>
+        <v>91.00832459401033</v>
       </c>
       <c r="R18">
-        <v>68.359513232555</v>
+        <v>819.074921346093</v>
       </c>
       <c r="S18">
-        <v>0.002449455223994528</v>
+        <v>0.01495098276983445</v>
       </c>
       <c r="T18">
-        <v>0.003750022153376496</v>
+        <v>0.02334265197829772</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.570476333333333</v>
+        <v>1.560491</v>
       </c>
       <c r="H19">
-        <v>4.711429</v>
+        <v>4.681473</v>
       </c>
       <c r="I19">
-        <v>0.04632237927988758</v>
+        <v>0.02825067311094296</v>
       </c>
       <c r="J19">
-        <v>0.05451880324175783</v>
+        <v>0.03896162845449177</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.79084133333333</v>
+        <v>4.927659666666667</v>
       </c>
       <c r="N19">
-        <v>38.372524</v>
+        <v>14.782979</v>
       </c>
       <c r="O19">
-        <v>0.1398468544787579</v>
+        <v>0.044715881357845</v>
       </c>
       <c r="P19">
-        <v>0.1819120948117138</v>
+        <v>0.05062137630790552</v>
       </c>
       <c r="Q19">
-        <v>20.08771359742178</v>
+        <v>7.689568560896334</v>
       </c>
       <c r="R19">
-        <v>180.789422376796</v>
+        <v>69.20611704806701</v>
       </c>
       <c r="S19">
-        <v>0.00647803903426427</v>
+        <v>0.001263253747108187</v>
       </c>
       <c r="T19">
-        <v>0.009917629704335823</v>
+        <v>0.001972291255563627</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H20">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I20">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J20">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.662128</v>
+        <v>6.6809135</v>
       </c>
       <c r="N20">
-        <v>11.324256</v>
+        <v>13.361827</v>
       </c>
       <c r="O20">
-        <v>0.06190607559117826</v>
+        <v>0.06062572410365156</v>
       </c>
       <c r="P20">
-        <v>0.05368474409304218</v>
+        <v>0.04575492346489379</v>
       </c>
       <c r="Q20">
-        <v>46.05197817475201</v>
+        <v>75.98175197758974</v>
       </c>
       <c r="R20">
-        <v>184.207912699008</v>
+        <v>303.927007910359</v>
       </c>
       <c r="S20">
-        <v>0.01485119303271127</v>
+        <v>0.01248239509634423</v>
       </c>
       <c r="T20">
-        <v>0.01010515904492354</v>
+        <v>0.008661554868262344</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H21">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I21">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J21">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.084383</v>
       </c>
       <c r="O21">
-        <v>0.03675205837148112</v>
+        <v>0.03050346440964767</v>
       </c>
       <c r="P21">
-        <v>0.04780689527782001</v>
+        <v>0.03453196724936464</v>
       </c>
       <c r="Q21">
-        <v>27.339885040974</v>
+        <v>38.2297564523685</v>
       </c>
       <c r="R21">
-        <v>164.039310245844</v>
+        <v>229.378538714211</v>
       </c>
       <c r="S21">
-        <v>0.008816774573610953</v>
+        <v>0.00628044118561816</v>
       </c>
       <c r="T21">
-        <v>0.008998762840130349</v>
+        <v>0.006537012989845777</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H22">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I22">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J22">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.024785666666666</v>
+        <v>5.022293</v>
       </c>
       <c r="N22">
-        <v>21.074357</v>
+        <v>15.066879</v>
       </c>
       <c r="O22">
-        <v>0.07680450044444284</v>
+        <v>0.04557462834771031</v>
       </c>
       <c r="P22">
-        <v>0.09990691330807182</v>
+        <v>0.0515935354873114</v>
       </c>
       <c r="Q22">
-        <v>57.13492810541268</v>
+        <v>57.1183298638405</v>
       </c>
       <c r="R22">
-        <v>342.809568632476</v>
+        <v>342.709979183043</v>
       </c>
       <c r="S22">
-        <v>0.01842530722532058</v>
+        <v>0.009383484087259019</v>
       </c>
       <c r="T22">
-        <v>0.01880562654663562</v>
+        <v>0.009766822991494327</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H23">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I23">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J23">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>57.787556</v>
+        <v>31.886678</v>
       </c>
       <c r="N23">
-        <v>115.575112</v>
+        <v>63.77335599999999</v>
       </c>
       <c r="O23">
-        <v>0.6318120695903461</v>
+        <v>0.2893545834727505</v>
       </c>
       <c r="P23">
-        <v>0.5479053379970118</v>
+        <v>0.2183791949169395</v>
       </c>
       <c r="Q23">
-        <v>470.0054939917041</v>
+        <v>362.645865596863</v>
       </c>
       <c r="R23">
-        <v>1880.021975966816</v>
+        <v>1450.583462387452</v>
       </c>
       <c r="S23">
-        <v>0.151570955132878</v>
+        <v>0.05957600156114989</v>
       </c>
       <c r="T23">
-        <v>0.1031330348232017</v>
+        <v>0.04133988728691274</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H24">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I24">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J24">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.836431666666667</v>
+        <v>58.32031366666666</v>
       </c>
       <c r="N24">
-        <v>14.509295</v>
+        <v>174.960941</v>
       </c>
       <c r="O24">
-        <v>0.05287844152379369</v>
+        <v>0.5292257183083949</v>
       </c>
       <c r="P24">
-        <v>0.06878401451234029</v>
+        <v>0.5991190025735851</v>
       </c>
       <c r="Q24">
-        <v>39.33631411317668</v>
+        <v>663.2745070379827</v>
       </c>
       <c r="R24">
-        <v>236.01788467906</v>
+        <v>3979.647042227897</v>
       </c>
       <c r="S24">
-        <v>0.01268547448436068</v>
+        <v>0.1089637214027778</v>
       </c>
       <c r="T24">
-        <v>0.01294731712217685</v>
+        <v>0.1134151632313688</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.133334000000001</v>
+        <v>11.3729585</v>
       </c>
       <c r="H25">
-        <v>16.266668</v>
+        <v>22.745917</v>
       </c>
       <c r="I25">
-        <v>0.2398987965379539</v>
+        <v>0.2058927176688748</v>
       </c>
       <c r="J25">
-        <v>0.188231483927912</v>
+        <v>0.1893032314851988</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.79084133333333</v>
+        <v>4.927659666666667</v>
       </c>
       <c r="N25">
-        <v>38.372524</v>
+        <v>14.782979</v>
       </c>
       <c r="O25">
-        <v>0.1398468544787579</v>
+        <v>0.044715881357845</v>
       </c>
       <c r="P25">
-        <v>0.1819120948117138</v>
+        <v>0.05062137630790552</v>
       </c>
       <c r="Q25">
-        <v>104.0321847050053</v>
+        <v>56.04206889112383</v>
       </c>
       <c r="R25">
-        <v>624.1931082300321</v>
+        <v>336.252413346743</v>
       </c>
       <c r="S25">
-        <v>0.0335490920890724</v>
+        <v>0.009206674335725683</v>
       </c>
       <c r="T25">
-        <v>0.03424158355084392</v>
+        <v>0.009582790117314796</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H26">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I26">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J26">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.662128</v>
+        <v>6.6809135</v>
       </c>
       <c r="N26">
-        <v>11.324256</v>
+        <v>13.361827</v>
       </c>
       <c r="O26">
-        <v>0.06190607559117826</v>
+        <v>0.06062572410365156</v>
       </c>
       <c r="P26">
-        <v>0.05368474409304218</v>
+        <v>0.04575492346489379</v>
       </c>
       <c r="Q26">
-        <v>63.76544546811201</v>
+        <v>17.22218798462767</v>
       </c>
       <c r="R26">
-        <v>382.592672808672</v>
+        <v>103.333127907766</v>
       </c>
       <c r="S26">
-        <v>0.02056356701703954</v>
+        <v>0.002829286628071434</v>
       </c>
       <c r="T26">
-        <v>0.02098802245520935</v>
+        <v>0.002944870096395866</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H27">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I27">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J27">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.084383</v>
       </c>
       <c r="O27">
-        <v>0.03675205837148112</v>
+        <v>0.03050346440964767</v>
       </c>
       <c r="P27">
-        <v>0.04780689527782001</v>
+        <v>0.03453196724936464</v>
       </c>
       <c r="Q27">
-        <v>37.855918850419</v>
+        <v>8.665239154046002</v>
       </c>
       <c r="R27">
-        <v>340.703269653771</v>
+        <v>77.98715238641401</v>
       </c>
       <c r="S27">
-        <v>0.0122080653331512</v>
+        <v>0.00142353836164525</v>
       </c>
       <c r="T27">
-        <v>0.01869008055371862</v>
+        <v>0.002222540221281329</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H28">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I28">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J28">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>7.024785666666666</v>
+        <v>5.022293</v>
       </c>
       <c r="N28">
-        <v>21.074357</v>
+        <v>15.066879</v>
       </c>
       <c r="O28">
-        <v>0.07680450044444284</v>
+        <v>0.04557462834771031</v>
       </c>
       <c r="P28">
-        <v>0.09990691330807182</v>
+        <v>0.0515935354873114</v>
       </c>
       <c r="Q28">
-        <v>79.11134954084545</v>
+        <v>12.94656399306467</v>
       </c>
       <c r="R28">
-        <v>712.002145867609</v>
+        <v>116.519075937582</v>
       </c>
       <c r="S28">
-        <v>0.02551243116313139</v>
+        <v>0.002126880766703052</v>
       </c>
       <c r="T28">
-        <v>0.03905855518853497</v>
+        <v>0.003320653785826957</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H29">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I29">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J29">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>57.787556</v>
+        <v>31.886678</v>
       </c>
       <c r="N29">
-        <v>115.575112</v>
+        <v>63.77335599999999</v>
       </c>
       <c r="O29">
-        <v>0.6318120695903461</v>
+        <v>0.2893545834727505</v>
       </c>
       <c r="P29">
-        <v>0.5479053379970118</v>
+        <v>0.2183791949169395</v>
       </c>
       <c r="Q29">
-        <v>650.7887583702575</v>
+        <v>82.19809502417466</v>
       </c>
       <c r="R29">
-        <v>3904.732550221544</v>
+        <v>493.188570145048</v>
       </c>
       <c r="S29">
-        <v>0.2098713205630331</v>
+        <v>0.01350362516727983</v>
       </c>
       <c r="T29">
-        <v>0.2142033035918064</v>
+        <v>0.01405528218792294</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H30">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I30">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J30">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>4.836431666666667</v>
+        <v>58.32031366666666</v>
       </c>
       <c r="N30">
-        <v>14.509295</v>
+        <v>174.960941</v>
       </c>
       <c r="O30">
-        <v>0.05287844152379369</v>
+        <v>0.5292257183083949</v>
       </c>
       <c r="P30">
-        <v>0.06878401451234029</v>
+        <v>0.5991190025735851</v>
       </c>
       <c r="Q30">
-        <v>54.46666336421278</v>
+        <v>150.3392320959976</v>
       </c>
       <c r="R30">
-        <v>490.199970277915</v>
+        <v>1353.053088863978</v>
       </c>
       <c r="S30">
-        <v>0.01756482486811182</v>
+        <v>0.02469795239858018</v>
       </c>
       <c r="T30">
-        <v>0.02689107428066416</v>
+        <v>0.03856038872439985</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>11.26174566666667</v>
+        <v>2.577819333333334</v>
       </c>
       <c r="H31">
-        <v>33.785237</v>
+        <v>7.733458000000001</v>
       </c>
       <c r="I31">
-        <v>0.3321736488812399</v>
+        <v>0.04666808800888241</v>
       </c>
       <c r="J31">
-        <v>0.3909494738176372</v>
+        <v>0.0643618188686375</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.79084133333333</v>
+        <v>4.927659666666667</v>
       </c>
       <c r="N31">
-        <v>38.372524</v>
+        <v>14.782979</v>
       </c>
       <c r="O31">
-        <v>0.1398468544787579</v>
+        <v>0.044715881357845</v>
       </c>
       <c r="P31">
-        <v>0.1819120948117138</v>
+        <v>0.05062137630790552</v>
       </c>
       <c r="Q31">
-        <v>144.0472019586876</v>
+        <v>12.70261635682022</v>
       </c>
       <c r="R31">
-        <v>1296.424817628188</v>
+        <v>114.323547211382</v>
       </c>
       <c r="S31">
-        <v>0.04645343993677279</v>
+        <v>0.002086804686602654</v>
       </c>
       <c r="T31">
-        <v>0.07111843774770366</v>
+        <v>0.003258083852810552</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H32">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I32">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J32">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>5.662128</v>
+        <v>6.6809135</v>
       </c>
       <c r="N32">
-        <v>11.324256</v>
+        <v>13.361827</v>
       </c>
       <c r="O32">
-        <v>0.06190607559117826</v>
+        <v>0.06062572410365156</v>
       </c>
       <c r="P32">
-        <v>0.05368474409304218</v>
+        <v>0.04575492346489379</v>
       </c>
       <c r="Q32">
-        <v>11.650964560352</v>
+        <v>12.16559384902683</v>
       </c>
       <c r="R32">
-        <v>69.90578736211201</v>
+        <v>72.99356309416099</v>
       </c>
       <c r="S32">
-        <v>0.003757291881066894</v>
+        <v>0.001998581831200691</v>
       </c>
       <c r="T32">
-        <v>0.003834846663775002</v>
+        <v>0.002080228921137928</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H33">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I33">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J33">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.084383</v>
       </c>
       <c r="O33">
-        <v>0.03675205837148112</v>
+        <v>0.03050346440964767</v>
       </c>
       <c r="P33">
-        <v>0.04780689527782001</v>
+        <v>0.03453196724936464</v>
       </c>
       <c r="Q33">
-        <v>6.916880540674001</v>
+        <v>6.121044564540999</v>
       </c>
       <c r="R33">
-        <v>62.25192486606599</v>
+        <v>55.089401080869</v>
       </c>
       <c r="S33">
-        <v>0.002230608372651237</v>
+        <v>0.001005574294726269</v>
       </c>
       <c r="T33">
-        <v>0.003414976004055307</v>
+        <v>0.001569981797282038</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H34">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I34">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J34">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>7.024785666666666</v>
+        <v>5.022293</v>
       </c>
       <c r="N34">
-        <v>21.074357</v>
+        <v>15.066879</v>
       </c>
       <c r="O34">
-        <v>0.07680450044444284</v>
+        <v>0.04557462834771031</v>
       </c>
       <c r="P34">
-        <v>0.09990691330807182</v>
+        <v>0.0515935354873114</v>
       </c>
       <c r="Q34">
-        <v>14.45490614949044</v>
+        <v>9.145332719666333</v>
       </c>
       <c r="R34">
-        <v>130.094155345414</v>
+        <v>82.307994476997</v>
       </c>
       <c r="S34">
-        <v>0.004661528342630502</v>
+        <v>0.001502408845851157</v>
       </c>
       <c r="T34">
-        <v>0.00713662139328653</v>
+        <v>0.002345679033794234</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H35">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I35">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J35">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>57.787556</v>
+        <v>31.886678</v>
       </c>
       <c r="N35">
-        <v>115.575112</v>
+        <v>63.77335599999999</v>
       </c>
       <c r="O35">
-        <v>0.6318120695903461</v>
+        <v>0.2893545834727505</v>
       </c>
       <c r="P35">
-        <v>0.5479053379970118</v>
+        <v>0.2183791949169395</v>
       </c>
       <c r="Q35">
-        <v>118.9094925062373</v>
+        <v>58.06397190185132</v>
       </c>
       <c r="R35">
-        <v>713.456955037424</v>
+        <v>348.3838314111079</v>
       </c>
       <c r="S35">
-        <v>0.03834683973684426</v>
+        <v>0.009538835566146275</v>
       </c>
       <c r="T35">
-        <v>0.0391383621730754</v>
+        <v>0.009928520968668806</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H36">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I36">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J36">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>4.836431666666667</v>
+        <v>58.32031366666666</v>
       </c>
       <c r="N36">
-        <v>14.509295</v>
+        <v>174.960941</v>
       </c>
       <c r="O36">
-        <v>0.05287844152379369</v>
+        <v>0.5292257183083949</v>
       </c>
       <c r="P36">
-        <v>0.06878401451234029</v>
+        <v>0.5991190025735851</v>
       </c>
       <c r="Q36">
-        <v>9.951928664787779</v>
+        <v>106.1982390905848</v>
       </c>
       <c r="R36">
-        <v>89.56735798309001</v>
+        <v>955.7841518152628</v>
       </c>
       <c r="S36">
-        <v>0.003209373831623286</v>
+        <v>0.01744640449006343</v>
       </c>
       <c r="T36">
-        <v>0.004913428442846693</v>
+        <v>0.02723870093047206</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.057700666666667</v>
+        <v>1.820947666666666</v>
       </c>
       <c r="H37">
-        <v>6.173102</v>
+        <v>5.462842999999999</v>
       </c>
       <c r="I37">
-        <v>0.06069342702127795</v>
+        <v>0.0329659045025792</v>
       </c>
       <c r="J37">
-        <v>0.07143270827795596</v>
+        <v>0.04546459186482997</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.79084133333333</v>
+        <v>4.927659666666667</v>
       </c>
       <c r="N37">
-        <v>38.372524</v>
+        <v>14.782979</v>
       </c>
       <c r="O37">
-        <v>0.1398468544787579</v>
+        <v>0.044715881357845</v>
       </c>
       <c r="P37">
-        <v>0.1819120948117138</v>
+        <v>0.05062137630790552</v>
       </c>
       <c r="Q37">
-        <v>26.31972273882756</v>
+        <v>8.97301037214411</v>
       </c>
       <c r="R37">
-        <v>236.877504649448</v>
+        <v>80.75709334929699</v>
       </c>
       <c r="S37">
-        <v>0.008487784856461773</v>
+        <v>0.00147409947459138</v>
       </c>
       <c r="T37">
-        <v>0.01299447360091702</v>
+        <v>0.002301480213474898</v>
       </c>
     </row>
   </sheetData>
